--- a/Jogos_do_Dia/2023-09-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="H2" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="I2" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
         <v>1.02</v>
@@ -663,10 +663,10 @@
         <v>4.33</v>
       </c>
       <c r="N2" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="O2" t="n">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="P2" t="n">
         <v>1.3</v>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.42</v>
+        <v>2.65</v>
       </c>
       <c r="H3" t="n">
-        <v>2.91</v>
+        <v>2.95</v>
       </c>
       <c r="I3" t="n">
-        <v>2.91</v>
+        <v>2.85</v>
       </c>
       <c r="J3" t="n">
         <v>1.11</v>
@@ -778,10 +778,10 @@
         <v>2.33</v>
       </c>
       <c r="N3" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="O3" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
         <v>1.59</v>
@@ -847,7 +847,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -859,110 +859,110 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Lanús</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.68</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="I4" t="n">
-        <v>4.65</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.28</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N4" t="n">
-        <v>2.11</v>
+        <v>2.88</v>
       </c>
       <c r="O4" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF4" t="n">
         <v>1.67</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AG4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH4" t="n">
         <v>2.95</v>
       </c>
-      <c r="AB4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -974,110 +974,110 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Colo-Colo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.66</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q5" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>2.05</v>
       </c>
       <c r="S5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="W5" t="n">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>1.3</v>
+        <v>0.82</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.08</v>
+        <v>3.28</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.08</v>
+        <v>1.27</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.95</v>
+        <v>4.25</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1089,110 +1089,110 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Platense</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Lanús</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.35</v>
-      </c>
       <c r="N6" t="n">
-        <v>2.88</v>
+        <v>1.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.87</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.57</v>
       </c>
-      <c r="T6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="X6" t="n">
-        <v>1.07</v>
+        <v>1.55</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.76</v>
+        <v>3.17</v>
       </c>
       <c r="AB6" t="n">
         <v>1.91</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>2.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.95</v>
+        <v>2.35</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1204,110 +1204,110 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Colo-Colo</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Copiapó</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.28</v>
+        <v>2.65</v>
       </c>
       <c r="H7" t="n">
-        <v>4.85</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>8.699999999999999</v>
+        <v>2.85</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="M7" t="n">
-        <v>3.69</v>
+        <v>2.4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.71</v>
+        <v>2.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.94</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>1.07</v>
+        <v>1.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="V7" t="n">
-        <v>2.95</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="X7" t="n">
-        <v>0.82</v>
+        <v>1.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.28</v>
+        <v>3.08</v>
       </c>
       <c r="AB7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF7" t="n">
         <v>1.27</v>
       </c>
-      <c r="AC7" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AG7" t="n">
-        <v>1.87</v>
+        <v>1.49</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.18</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1319,104 +1319,104 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M8" t="n">
         <v>2.9</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
       <c r="N8" t="n">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="P8" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.62</v>
       </c>
-      <c r="S8" t="n">
-        <v>2.2</v>
-      </c>
       <c r="T8" t="n">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="U8" t="n">
         <v>1.25</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="W8" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="X8" t="n">
-        <v>1.55</v>
+        <v>0.82</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.17</v>
+        <v>2.95</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.91</v>
+        <v>1.46</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.35</v>
+        <v>1.96</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="9">
@@ -1447,52 +1447,52 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="N9" t="n">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.8</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
         <v>0.9</v>
@@ -1510,28 +1510,28 @@
         <v>3.01</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10">
@@ -1677,37 +1677,37 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M11" t="n">
         <v>3.4</v>
       </c>
-      <c r="I11" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R11" t="n">
         <v>1.75</v>
@@ -1716,13 +1716,13 @@
         <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W11" t="n">
         <v>2</v>
@@ -1740,28 +1740,28 @@
         <v>3.56</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AC11" t="n">
         <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>
